--- a/xlsx/阿斯图里亚斯亲王奖_intext.xlsx
+++ b/xlsx/阿斯图里亚斯亲王奖_intext.xlsx
@@ -29,19 +29,19 @@
     <t>西班牙</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_阿斯图里亚斯亲王奖</t>
+    <t>政策_政策_维基百科_阿斯图里亚斯亲王奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%E8%AB%BE%E7%88%BE_(%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E5%A5%B3%E8%A6%AA%E7%8E%8B)</t>
   </si>
   <si>
-    <t>萊昂諾爾 (阿斯圖里亞斯女親王)</t>
+    <t>莱昂诺尔 (阿斯图里亚斯女亲王)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>阿斯圖里亞斯親王</t>
+    <t>阿斯图里亚斯亲王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E4%BD%A9_(%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%A6%AA%E7%8E%8B)</t>
   </si>
   <si>
-    <t>費利佩 (阿斯圖里亞斯親王)</t>
+    <t>费利佩 (阿斯图里亚斯亲王)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%C2%B7%E5%B0%BC%E9%82%81%E8%80%B6</t>
   </si>
   <si>
-    <t>奧斯卡·尼邁耶</t>
+    <t>奥斯卡·尼迈耶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E5%A1%94%E7%9A%AE%E5%9F%83%E6%96%AF</t>
   </si>
   <si>
-    <t>安東尼·塔皮埃斯</t>
+    <t>安东尼·塔皮埃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%C2%B7%E5%BE%B7%C2%B7%E6%B4%9B%E6%96%AF%C2%B7%E5%AE%89%E8%B5%AB%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>維多利亞·德·洛斯·安赫萊斯</t>
+    <t>维多利亚·德·洛斯·安赫莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%95%BE%E8%8E%8E%C2%B7%E5%B8%83%E5%B9%B2%E8%96%A9</t>
   </si>
   <si>
-    <t>特蕾莎·布干薩</t>
+    <t>特蕾莎·布干萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E8%B3%BD%E6%8B%89%E7%89%B9%C2%B7%E5%8D%A1%E8%8A%AD%E8%91%89</t>
   </si>
   <si>
-    <t>蒙特賽拉特·卡芭葉</t>
+    <t>蒙特赛拉特·卡芭叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%8D%A1%E9%9B%B7%E6%8B%89%E6%96%AF</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%9E%E9%87%91%C2%B7%E7%BE%85%E5%BE%B7%E5%88%A9%E6%9E%9C</t>
   </si>
   <si>
-    <t>霍亞金·羅德利果</t>
+    <t>霍亚金·罗德利果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B7%B4%E6%96%AF%E8%92%82%E6%98%82%C2%B7%E8%90%A8%E5%B0%94%E5%8A%A0%E5%A4%9A</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%C2%B7%E5%8D%A1%E6%8B%89%E7%89%B9%E6%8B%89%E7%93%A6</t>
   </si>
   <si>
-    <t>聖地牙哥·卡拉特拉瓦</t>
+    <t>圣地牙哥·卡拉特拉瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E6%BD%98%E5%BE%B7%E5%88%97%E8%8C%A8%E5%9F%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E8%BF%AA%C2%B7%E8%89%BE%E4%BC%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BD%97%C2%B7%E9%98%BF%E5%B0%94%E8%8E%AB%E5%A4%9A%E7%93%A6%E5%B0%94</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89%E5%9C%8B%E7%AB%8B%E9%9D%92%E5%B0%91%E5%B9%B4%E7%AE%A1%E5%BC%A6%E6%A8%82%E5%9C%98%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>委內瑞拉國立青少年管弦樂團系統</t>
+    <t>委内瑞拉国立青少年管弦乐团系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%A1%94%E7%BB%B4%E5%A5%A5%C2%B7%E5%B8%95%E6%96%AF</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%81%E8%B4%9D%E6%89%98%C2%B7%E5%9F%83%E5%8F%AF</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E9%A6%AC%E6%A0%BC%E5%8A%AA%E6%96%AF%C2%B7%E6%81%A9%E5%B2%91%E6%96%AF%E8%B2%9D%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>漢斯·馬格努斯·恩岑斯貝格爾</t>
+    <t>汉斯·马格努斯·恩岑斯贝格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%B2%99%E5%BE%B7%C2%B7%E5%8D%A1%E6%99%AE%E9%92%A6%E6%96%AF%E5%9F%BA</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E6%B2%83%C2%B7%E5%8F%A4%E9%90%B5%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>古斯塔沃·古鐵雷斯</t>
+    <t>古斯塔沃·古铁雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%BE%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>歌德學院</t>
+    <t>歌德学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E4%B8%87%E6%8F%90%E6%96%AF%E5%AD%A6%E9%99%A2</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%92%99%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>卡蒙斯學院</t>
+    <t>卡蒙斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>法語聯盟</t>
+    <t>法语联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%96%87%E5%8C%96%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>英國文化協會</t>
+    <t>英国文化协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>國家地理學會</t>
+    <t>国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6_(%E6%9C%9F%E5%88%8A)</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A6%AE%C2%B7%E8%90%8A%E6%9F%8F%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>安妮·萊柏維茲</t>
+    <t>安妮·莱柏维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E8%AB%BE</t>
   </si>
   <si>
-    <t>季諾</t>
+    <t>季诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%BA%B3%E8%B5%AB%E7%89%B9%E9%9F%A6</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8B%B1%E5%B8%83%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科英布拉大學</t>
+    <t>科英布拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%9B%B7%E6%96%AF%C2%B7%E5%BE%B7%E5%A5%8E%E5%88%A9%E4%BA%9A%E5%B0%94</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B%C2%B7%E5%BE%B7%E6%B4%9B%E7%88%BE</t>
   </si>
   <si>
-    <t>雅克·德洛爾</t>
+    <t>雅克·德洛尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%91%AA%C2%B7%E5%8D%9A%E5%B0%BC%E8%AB%BE</t>
   </si>
   <si>
-    <t>愛瑪·博尼諾</t>
+    <t>爱玛·博尼诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A0%BC%E4%BC%A6</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E7%A0%94%E7%A9%B6%E7%A7%91%E5%AD%B8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>南極研究科學委員會</t>
+    <t>南极研究科学委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E4%BC%8A%E7%BA%B3%E8%A5%BF%E5%A5%A5%C2%B7%E5%8D%A2%E6%8B%89%C2%B7%E8%BE%BE%E5%B8%AD%E5%B0%94%E7%93%A6</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E8%88%87%E7%BE%8E%E7%90%B3%E9%81%94%C2%B7%E8%93%8B%E8%8C%A8%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>比爾與美琳達·蓋茨基金會</t>
+    <t>比尔与美琳达·盖茨基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83</t>
   </si>
   <si>
-    <t>紅十字會</t>
+    <t>红十字会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>巴黎協議</t>
+    <t>巴黎协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E7%89%B9%C2%B7%E6%A0%BC%E6%8B%89%E6%96%AF</t>
@@ -845,13 +845,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E7%88%BE%C2%B7%E6%88%B4%E5%88%A9%E8%B2%9D%E6%96%AF</t>
   </si>
   <si>
-    <t>米格爾·戴利貝斯</t>
+    <t>米格尔·戴利贝斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E9%AD%AF%E7%88%BE%E7%A6%8F</t>
   </si>
   <si>
-    <t>胡安·魯爾福</t>
+    <t>胡安·鲁尔福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%A5%A5%C2%B7%E5%B7%B4%E5%B0%94%E5%8A%A0%E6%96%AF%C2%B7%E7%95%A5%E8%90%A8</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E7%B1%B3%E5%8B%92</t>
   </si>
   <si>
-    <t>亞瑟·米勒</t>
+    <t>亚瑟·米勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -917,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A5%A7%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>保羅·奧斯特</t>
+    <t>保罗·奥斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%C2%B7%E6%84%9B%E7%89%B9%E4%BC%8D</t>
   </si>
   <si>
-    <t>瑪格麗特·愛特伍</t>
+    <t>玛格丽特·爱特伍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%95%8F%C2%B7%E9%A6%AC%E7%9B%A7%E5%A4%AB</t>
   </si>
   <si>
-    <t>阿敏·馬盧夫</t>
+    <t>阿敏·马卢夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -959,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%8F%AD%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·班維爾</t>
+    <t>约翰·班维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
   </si>
   <si>
-    <t>安東尼·紀登斯</t>
+    <t>安东尼·纪登斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E4%B8%87%E5%B0%BC%C2%B7%E8%90%A8%E6%89%98%E5%88%A9</t>
@@ -1031,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瑪麗·羅賓遜</t>
+    <t>玛丽·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%A8%E7%B6%AD%E5%9D%A6%C2%B7%E6%89%98%E5%A4%9A%E6%B4%9B%E5%A4%AB</t>
   </si>
   <si>
-    <t>茨維坦·托多洛夫</t>
+    <t>茨维坦·托多洛夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -1055,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%C2%B7%E9%98%BF%E6%BB%95%E4%BC%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>戴維·阿滕伯勒</t>
+    <t>戴维·阿滕伯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E5%A7%8B%E7%9A%87%E5%85%B5%E9%A6%AC%E4%BF%91</t>
   </si>
   <si>
-    <t>秦始皇兵馬俑</t>
+    <t>秦始皇兵马俑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1073,25 +1073,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B2%83%E5%BE%B7%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>哈沃德·加德納</t>
+    <t>哈沃德·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%9F%BA%E9%9B%85%C2%B7%E8%96%A9%E6%A3%AE</t>
   </si>
   <si>
-    <t>薩斯基雅·薩森</t>
+    <t>萨斯基雅·萨森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B5%B2%E7%89%B9%C2%B7%E6%9D%9C%E8%8A%99%E8%8B%A5</t>
   </si>
   <si>
-    <t>艾絲特·杜芙若</t>
+    <t>艾丝特·杜芙若</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B7%B4%E6%96%AF%E8%92%82%E5%AE%89%C2%B7%E6%9F%AF%E4%BC%8A</t>
@@ -1109,19 +1109,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%C2%B7%E5%B7%B4%E5%88%97%E6%96%AF%E7%89%B9%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>塞維·巴列斯特羅斯</t>
+    <t>塞维·巴列斯特罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E8%93%8B%C2%B7%E5%B8%83%E5%8D%A1</t>
   </si>
   <si>
-    <t>謝爾蓋·布卡</t>
+    <t>谢尔盖·布卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E5%B0%94%C2%B7%E5%AE%89%E6%9D%9C%E5%85%B0</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%AD%E6%9F%A5%C2%B7%E6%A1%91%E5%88%87%E6%96%AF%C2%B7%E7%B6%AD%E5%8D%A1%E9%87%8C%E5%A5%A7</t>
   </si>
   <si>
-    <t>阿蘭查·桑切斯·維卡里奧</t>
+    <t>阿兰查·桑切斯·维卡里奥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%89%B9%E8%8F%B2%C2%B7%E6%A0%BC%E6%8B%89%E8%8A%99</t>
@@ -1169,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西國家足球隊</t>
+    <t>巴西国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E6%B3%95%E8%87%AA%E8%A1%8C%E8%BD%A6%E8%B5%9B</t>
@@ -1181,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9F%A5%E5%A7%86%C2%B7%E8%89%BE%E7%88%BE%C2%B7%E5%A5%8E%E7%BE%85%E4%BC%8A</t>
   </si>
   <si>
-    <t>希查姆·艾爾·奎羅伊</t>
+    <t>希查姆·艾尔·奎罗伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E9%9A%86%E7%B4%A2</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%90%E7%88%BE%C2%B7%E6%8B%BF%E5%BA%A6</t>
   </si>
   <si>
-    <t>拉斐爾·拿度</t>
+    <t>拉斐尔·拿度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E8%8E%B2%E5%A8%9C%C2%B7%E4%BC%8A%E8%BE%9B%E5%B7%B4%E8%80%B6%E5%A8%83</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙國家足球隊</t>
+    <t>西班牙国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8B%92%C2%B7%E6%A0%BC%E5%B8%83%E9%9B%B7%E8%A5%BF%E6%8B%89%E8%A5%BF%E8%80%B6</t>
@@ -1229,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%85%8B%E5%B0%94%C2%B7%E5%8D%A1%E8%A5%BF%E5%88%A9%E4%BA%9A%E6%96%AF</t>
@@ -1253,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%A6%AC%E6%8B%89%E6%9D%BE</t>
   </si>
   <si>
-    <t>紐約馬拉松</t>
+    <t>纽约马拉松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E8%93%8B%E7%B4%A2</t>
   </si>
   <si>
-    <t>馬克·蓋索</t>
+    <t>马克·盖索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E5%8A%A0%E7%B4%A2%E5%B0%94</t>
@@ -1271,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%9C%8B%E5%AE%B6%E6%A9%84%E6%AC%96%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐西蘭國家橄欖球隊</t>
+    <t>纽西兰国家橄榄球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -1313,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%A0%BC%C2%B7%E5%87%A1%E7%89%B9</t>
   </si>
   <si>
-    <t>克萊格·凡特</t>
+    <t>克莱格·凡特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7E%C2%B7%E8%8B%8F%E5%B0%94%E6%96%AF%E9%A1%BF</t>
@@ -1325,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E6%9F%AF%E6%9E%97%E6%96%AF</t>
   </si>
   <si>
-    <t>法蘭西斯·柯林斯</t>
+    <t>法兰西斯·柯林斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BD%8C%E7%88%BE%E9%A0%93%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>漢彌爾頓·史密斯</t>
+    <t>汉弥尔顿·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A1%E6%81%A9</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E4%BC%AF%E7%BA%B3%E6%96%AF-%E6%9D%8E</t>
@@ -1409,13 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%98%AD%E6%A0%BC</t>
   </si>
   <si>
-    <t>羅伯特·蘭格</t>
+    <t>罗伯特·兰格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E5%BA%AB%E7%8F%80</t>
   </si>
   <si>
-    <t>馬丁·庫珀</t>
+    <t>马丁·库珀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%C2%B7%E6%9C%B1%E5%88%A9%E5%8F%B6%E6%96%AF</t>
@@ -1457,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%A0%B8%E5%AD%90%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>歐洲核子研究組織</t>
+    <t>欧洲核子研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%A9%AC%E7%BA%BD%E5%9F%83%E5%B0%94%C2%B7%E5%8D%A1%E5%BD%AD%E8%92%82%E8%80%B6</t>
@@ -1481,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自然保護聯盟</t>
+    <t>国际自然保护联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1505,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>無國界醫生</t>
+    <t>无国界医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E8%B5%9B%E5%9B%A0%C2%B7%E6%9C%AC%C2%B7%E5%A1%94%E6%8B%89%E5%8B%92</t>
@@ -1553,13 +1553,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%9A%87%E5%AE%B6%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西班牙皇家學院</t>
+    <t>西班牙皇家学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%94%9F%E7%89%A9%E5%9C%88%E4%BF%9D%E8%AD%B7%E5%8D%80%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>世界生物圈保護區網絡</t>
+    <t>世界生物圈保护区网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E5%B7%B4%E4%BC%A6%E5%8D%9A%E4%BC%8A%E5%A7%86</t>
@@ -1583,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9B%85%E5%90%84%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>聖雅各之路</t>
+    <t>圣雅各之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%84%BF%E7%AB%A5%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1595,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E7%8C%B6%E5%A4%AA%E5%A4%A7%E5%B1%A0%E6%AE%BA%E7%B4%80%E5%BF%B5%E9%A4%A8</t>
   </si>
   <si>
-    <t>以色列猶太大屠殺紀念館</t>
+    <t>以色列犹太大屠杀纪念馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E4%B8%BD%E5%BE%B7%C2%B7%E8%B4%9D%E5%BD%93%E5%8F%A4</t>
@@ -1619,13 +1619,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SOS%E5%85%92%E7%AB%A5%E6%9D%91</t>
   </si>
   <si>
-    <t>SOS兒童村</t>
+    <t>SOS儿童村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
@@ -1649,25 +1649,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9D%BE%E5%AE%AE%E6%AE%BF%E4%B8%8B%E7%B4%80%E5%BF%B5%E4%B8%96%E7%95%8C%E6%96%87%E5%8C%96%E7%8D%8E</t>
   </si>
   <si>
-    <t>高松宮殿下紀念世界文化獎</t>
+    <t>高松宫殿下纪念世界文化奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E7%8D%8E</t>
   </si>
   <si>
-    <t>京都獎</t>
+    <t>京都奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%9D%E7%88%BE%E6%8B%9C%E7%8D%8E</t>
   </si>
   <si>
-    <t>郝爾拜獎</t>
+    <t>郝尔拜奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%AD%AF%E6%A0%BC%E7%8D%8E</t>
   </si>
   <si>
-    <t>克魯格獎</t>
+    <t>克鲁格奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E6%99%AE%E9%A1%BF%E5%A5%96</t>
@@ -1679,13 +1679,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E9%80%B8%E5%A4%AB%E7%8D%8E</t>
   </si>
   <si>
-    <t>邵逸夫獎</t>
+    <t>邵逸夫奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%8D%8E</t>
   </si>
   <si>
-    <t>唐獎</t>
+    <t>唐奖</t>
   </si>
 </sst>
 </file>
